--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>561789.1940403915</v>
+        <v>558914.9981739299</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8450425.812077058</v>
+        <v>8444421.381715722</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12182622.13991585</v>
+        <v>12182949.512333</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>190.0910713444383</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>238.598595338068</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>50.28788303971726</v>
+        <v>190.271393580297</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>372.0445717845312</v>
       </c>
       <c r="H5" t="n">
-        <v>146.9093365844865</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>99.29033025312222</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>223.3593330834803</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>202.5219092211971</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>363.7358473936678</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>74.75769145492464</v>
       </c>
       <c r="E13" t="n">
-        <v>68.37173631439877</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520935</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>107.6507174108362</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>74.75769145492357</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>78.73648894470833</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1822,13 +1822,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2059,13 +2059,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>86.08289065986931</v>
+        <v>120.6353666620232</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>103.7078888283128</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>42.32069823344314</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>149.5516258167718</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>102.8228810500186</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0465549525632</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H26" t="n">
-        <v>285.6449224468278</v>
+        <v>285.4442069312964</v>
       </c>
       <c r="I26" t="n">
-        <v>7.836911326852828</v>
+        <v>7.081331206015705</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.24480944163821</v>
+        <v>88.7982033329922</v>
       </c>
       <c r="T26" t="n">
-        <v>200.0869103964729</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9251583028307</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.5312115590949</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H27" t="n">
-        <v>85.0744927441158</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I27" t="n">
-        <v>2.695191437244219</v>
+        <v>2.334151821526106</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.4458279747588</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T27" t="n">
-        <v>188.8291635624429</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7563619754409</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6332368114362</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.28071285377527</v>
+        <v>70.88542329426762</v>
       </c>
       <c r="S28" t="n">
-        <v>145.0877142915109</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8715985455489</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1904252175624</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>214.404574376597</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0465549525632</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H29" t="n">
-        <v>285.6449224468278</v>
+        <v>285.4442069312964</v>
       </c>
       <c r="I29" t="n">
-        <v>7.836911326852828</v>
+        <v>7.081331206015705</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.24480944163821</v>
+        <v>88.7982033329922</v>
       </c>
       <c r="T29" t="n">
-        <v>200.0869103964729</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9251583028307</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.5312115590949</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H30" t="n">
-        <v>85.0744927441158</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I30" t="n">
-        <v>2.695191437244219</v>
+        <v>2.334151821526106</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>119.4458279747588</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T30" t="n">
-        <v>188.8291635624429</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7563619754409</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>16.63277947656309</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6332368114362</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>69.93446449871682</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>70.88542329426762</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8715985455489</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1904252175624</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.0465549525632</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H32" t="n">
-        <v>285.6449224468278</v>
+        <v>285.4442069312964</v>
       </c>
       <c r="I32" t="n">
-        <v>7.836911326852828</v>
+        <v>7.081331206015705</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.24480944163821</v>
+        <v>88.7982033329922</v>
       </c>
       <c r="T32" t="n">
-        <v>200.0869103964729</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9251583028307</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.5312115590949</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H33" t="n">
-        <v>85.0744927441158</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I33" t="n">
-        <v>2.695191437244219</v>
+        <v>2.334151821526106</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.4458279747588</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T33" t="n">
-        <v>188.8291635624429</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7563619754409</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>165.2482524947744</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6332368114362</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.2646978620939</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>70.88542329426762</v>
       </c>
       <c r="S34" t="n">
-        <v>182.9275756493162</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8715985455489</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>143.8262514023094</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>409.8432760127576</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.18500030523175</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>83.55410938283606</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>90.09273639788957</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>81.37259901119313</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>98.74897854931466</v>
+        <v>102.1854574632511</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081959</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>35.41770597126702</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>81.3725990111931</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1228.366061714959</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>859.4035447745471</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D2" t="n">
-        <v>859.4035447745471</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>859.4035447745471</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>448.4176399849395</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>1618.50539369077</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1228.366061714959</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>677.3331427521746</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T4" t="n">
-        <v>677.3331427521746</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>677.3331427521746</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>422.6486545462877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>422.6486545462877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>422.6486545462877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4544,22 +4544,22 @@
         <v>1507.939751500713</v>
       </c>
       <c r="C5" t="n">
-        <v>1138.977234560301</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="D5" t="n">
-        <v>780.7115359535505</v>
+        <v>1149.674052893962</v>
       </c>
       <c r="E5" t="n">
-        <v>780.7115359535505</v>
+        <v>763.8858002957179</v>
       </c>
       <c r="F5" t="n">
-        <v>369.725631163943</v>
+        <v>756.9402995465144</v>
       </c>
       <c r="G5" t="n">
-        <v>355.8022271025339</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4653,10 +4653,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.5651556036578</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>290.5651556036578</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>290.5651556036578</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.5651556036578</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1732.515907621104</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1090.256031232737</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>704.4677786344926</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>293.481873844885</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>279.5584697834759</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2492.581505946306</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>2119.115747685226</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>2119.115747685226</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4987,19 +4987,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>571.3497027553424</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
         <v>53.94298182036445</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2372.63210150842</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.222154646129</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.956456039379</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.168203441134</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.1822986515269</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1098484965235</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5262481052906</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.52934934475928</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4084803037847</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1318124390841</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.650628092439</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2437.45436442676</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2984.233181485542</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3864.197831814996</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4258.972198172174</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4717.450400681162</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4776.467467237964</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4666.176798765059</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4460.199051149281</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4206.668574423118</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3875.605687079547</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3522.837031809433</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3149.371273548353</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2759.231941572541</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5610873936839</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1080581125569</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.1736484513058</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9361934458502</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4016354727353</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0385353053538</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5366409432213</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.52934934475928</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2066188353765</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.4708178157236</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.1689781283889</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.445303350705</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1714.968346905159</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.929626323215</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.429217799317</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.070775445917</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.926422038432</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.488535531912</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.845535209768</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.777688344183</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.625580112441</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.388223384239</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.536723178706</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.776424413752</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>629.8617183806781</v>
+        <v>171.0738540998335</v>
       </c>
       <c r="C13" t="n">
-        <v>460.9255354527712</v>
+        <v>171.0738540998335</v>
       </c>
       <c r="D13" t="n">
-        <v>310.8088960404355</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>241.7465361269015</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7465361269015</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7465361269015</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.52934934475928</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.52934934475928</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6519817916948</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6391647405711</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.1989631890672</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.356008788616</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.764385494481</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.093984414894</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.701484848553</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.311781001068</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.481323758596</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.481323758596</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.714708328122</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.611841453765</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.927353247879</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>811.5101832109178</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>811.5101832109178</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y13" t="n">
-        <v>811.5101832109178</v>
+        <v>171.0738540998335</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.184671586539</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.222154646128</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.956456039378</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.168203441134</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.1822986515267</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1098484965232</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5262481052906</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.52934934475931</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8141293241378</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6335030139842</v>
+        <v>702.918325430551</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.667716262393</v>
+        <v>1153.95253867896</v>
       </c>
       <c r="M14" t="n">
-        <v>2215.218019092222</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N14" t="n">
-        <v>3042.644639845892</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3545.617110725229</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4258.972198172175</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4717.450400681163</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4776.467467237965</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.72936884318</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.751621227402</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.221144501238</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.158257157667</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.389601887553</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.923843626473</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.784511650661</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5610873936844</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1080581125574</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.1736484513062</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9361934458507</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4016354727357</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0385353053541</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5366409432218</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.52934934475931</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2066188353766</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.4708178157238</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.168978128389</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.445303350705</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.968346905159</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.929626323215</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.429217799317</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.070775445917</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.926422038433</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.488535531912</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.845535209768</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.777688344184</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.625580112441</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.388223384239</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.536723178706</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.776424413752</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>472.0677432698618</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C16" t="n">
-        <v>472.0677432698618</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="D16" t="n">
-        <v>321.951103857526</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>321.951103857526</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>175.0611563596158</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>175.0611563596158</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.52934934475931</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.52934934475931</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6519817916949</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6391647405712</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.1989631890674</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.356008788616</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.764385494481</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.093984414894</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.701484848554</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.311781001069</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.481323758597</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.795439585423</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.028824154949</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.925957280592</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.925957280592</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W16" t="n">
-        <v>874.5087872436316</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X16" t="n">
-        <v>874.5087872436316</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y16" t="n">
-        <v>653.7162081001014</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5522,13 +5522,13 @@
         <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>1923.729615463052</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5540,25 +5540,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>656.6259356382594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.230648292702</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501055</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.788099626699</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W19" t="n">
-        <v>964.3709295897381</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X19" t="n">
-        <v>877.4185147817896</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>656.6259356382594</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M20" t="n">
-        <v>1923.729615463052</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.236715577531</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906985</v>
+        <v>3610.459375831137</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4323.814463278082</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,7 +5859,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5868,7 +5868,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>485.9938459101016</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,10 +5911,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1913.595286070923</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862231</v>
+        <v>1721.909401897749</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431757</v>
+        <v>1500.142786467276</v>
       </c>
       <c r="U22" t="n">
-        <v>1355.643526557401</v>
+        <v>1211.039919592919</v>
       </c>
       <c r="V22" t="n">
-        <v>1100.959038351514</v>
+        <v>956.3554313870321</v>
       </c>
       <c r="W22" t="n">
-        <v>811.5418683145535</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="X22" t="n">
-        <v>811.5418683145535</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y22" t="n">
-        <v>590.7492891710234</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,22 +5990,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427193</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M23" t="n">
-        <v>2368.748013620956</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N23" t="n">
-        <v>2915.526830679739</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O23" t="n">
-        <v>3692.333950986038</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,16 +6096,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.8404695303061</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C25" t="n">
-        <v>392.8404695303062</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>392.8404695303062</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>392.8404695303062</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>392.8404695303062</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6145,10 +6145,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814701</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V25" t="n">
-        <v>1131.039769608814</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W25" t="n">
-        <v>841.6225995718536</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X25" t="n">
-        <v>613.6330486738362</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y25" t="n">
-        <v>392.8404695303061</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2328.808284537659</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C26" t="n">
-        <v>1959.845767597248</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D26" t="n">
-        <v>1601.580068990498</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.791816392254</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F26" t="n">
-        <v>804.8059116026466</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G26" t="n">
-        <v>390.6174722566229</v>
+        <v>389.6203923141831</v>
       </c>
       <c r="H26" t="n">
-        <v>102.0872475628576</v>
+        <v>101.2929105653989</v>
       </c>
       <c r="I26" t="n">
-        <v>94.17117551553085</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J26" t="n">
-        <v>356.5865355564972</v>
+        <v>358.2021945153779</v>
       </c>
       <c r="K26" t="n">
-        <v>800.6176543392838</v>
+        <v>1024.22078121125</v>
       </c>
       <c r="L26" t="n">
-        <v>1388.37928296463</v>
+        <v>1615.044308489598</v>
       </c>
       <c r="M26" t="n">
-        <v>2074.046781795931</v>
+        <v>2304.118759537071</v>
       </c>
       <c r="N26" t="n">
-        <v>2775.422905980455</v>
+        <v>3008.956963986484</v>
       </c>
       <c r="O26" t="n">
-        <v>3424.377230115126</v>
+        <v>3661.180432342252</v>
       </c>
       <c r="P26" t="n">
-        <v>4253.266651214147</v>
+        <v>4183.337072001698</v>
       </c>
       <c r="Q26" t="n">
-        <v>4595.116517095338</v>
+        <v>4527.282216042447</v>
       </c>
       <c r="R26" t="n">
-        <v>4708.558775776542</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S26" t="n">
-        <v>4618.412503613271</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T26" t="n">
-        <v>4416.304513313804</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U26" t="n">
-        <v>4162.844757452358</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V26" t="n">
-        <v>3831.781870108787</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W26" t="n">
-        <v>3479.013214838673</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.547456577593</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.408124601781</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.8769867702725</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C27" t="n">
-        <v>773.4239574891456</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D27" t="n">
-        <v>624.4895478278943</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E27" t="n">
-        <v>465.2520928224387</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F27" t="n">
-        <v>318.7175348493237</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G27" t="n">
-        <v>182.8274221633692</v>
+        <v>182.3293128866052</v>
       </c>
       <c r="H27" t="n">
-        <v>96.89359110870683</v>
+        <v>96.49777987399527</v>
       </c>
       <c r="I27" t="n">
-        <v>94.17117551553085</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J27" t="n">
-        <v>231.6461192737498</v>
+        <v>232.5958076174676</v>
       </c>
       <c r="K27" t="n">
-        <v>544.7675195683483</v>
+        <v>547.3935737179993</v>
       </c>
       <c r="L27" t="n">
-        <v>1012.120425000443</v>
+        <v>1017.00055985256</v>
       </c>
       <c r="M27" t="n">
-        <v>1012.120425000443</v>
+        <v>1017.00055985256</v>
       </c>
       <c r="N27" t="n">
-        <v>1606.211607749666</v>
+        <v>1387.61124389376</v>
       </c>
       <c r="O27" t="n">
-        <v>2127.469179633</v>
+        <v>1911.338811047606</v>
       </c>
       <c r="P27" t="n">
-        <v>2526.4912697054</v>
+        <v>2312.343290083222</v>
       </c>
       <c r="Q27" t="n">
-        <v>2531.878361733899</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="R27" t="n">
-        <v>2560.519197329501</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S27" t="n">
-        <v>2439.866845839846</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T27" t="n">
-        <v>2249.130316988893</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U27" t="n">
-        <v>2021.093587720771</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.941479489029</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.704122760827</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.852622555294</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1116.092323790341</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.4202451632154</v>
+        <v>413.1928731015853</v>
       </c>
       <c r="C28" t="n">
-        <v>558.4840622353086</v>
+        <v>244.2566901736784</v>
       </c>
       <c r="D28" t="n">
-        <v>408.3674228229728</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="E28" t="n">
-        <v>408.3674228229728</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="F28" t="n">
-        <v>261.4774753250624</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G28" t="n">
-        <v>94.17117551553085</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H28" t="n">
-        <v>94.17117551553085</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I28" t="n">
-        <v>94.17117551553085</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J28" t="n">
-        <v>166.7710612937718</v>
+        <v>167.3552671573043</v>
       </c>
       <c r="K28" t="n">
-        <v>415.9118121446776</v>
+        <v>417.5071952352223</v>
       </c>
       <c r="L28" t="n">
-        <v>790.2526316784467</v>
+        <v>793.1419734834326</v>
       </c>
       <c r="M28" t="n">
-        <v>1195.331662515452</v>
+        <v>1199.585302358417</v>
       </c>
       <c r="N28" t="n">
-        <v>1596.213435817159</v>
+        <v>1601.798933740116</v>
       </c>
       <c r="O28" t="n">
-        <v>1950.476342542013</v>
+        <v>1957.29202696932</v>
       </c>
       <c r="P28" t="n">
-        <v>2230.088777824546</v>
+        <v>2237.957099327609</v>
       </c>
       <c r="Q28" t="n">
-        <v>2340.242854410988</v>
+        <v>2348.839967262878</v>
       </c>
       <c r="R28" t="n">
-        <v>2268.242134356669</v>
+        <v>2277.2385295919</v>
       </c>
       <c r="S28" t="n">
-        <v>2121.688887597567</v>
+        <v>2092.617956886287</v>
       </c>
       <c r="T28" t="n">
-        <v>1901.616565834387</v>
+        <v>1872.583577444208</v>
       </c>
       <c r="U28" t="n">
-        <v>1612.535328240889</v>
+        <v>1583.502824220768</v>
       </c>
       <c r="V28" t="n">
-        <v>1357.850840035003</v>
+        <v>1328.818336014881</v>
       </c>
       <c r="W28" t="n">
-        <v>1357.850840035003</v>
+        <v>1039.40116597792</v>
       </c>
       <c r="X28" t="n">
-        <v>1129.861289136985</v>
+        <v>811.411615079903</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.0687099934552</v>
+        <v>594.841337931825</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2328.808284537659</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C29" t="n">
-        <v>1959.845767597248</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.580068990498</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.791816392254</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F29" t="n">
-        <v>804.8059116026466</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G29" t="n">
-        <v>390.6174722566229</v>
+        <v>389.6203923141829</v>
       </c>
       <c r="H29" t="n">
-        <v>102.0872475628569</v>
+        <v>101.292910565399</v>
       </c>
       <c r="I29" t="n">
-        <v>94.17117551553085</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J29" t="n">
-        <v>356.5865355564972</v>
+        <v>358.2021945153779</v>
       </c>
       <c r="K29" t="n">
-        <v>800.6176543392838</v>
+        <v>804.7014151994154</v>
       </c>
       <c r="L29" t="n">
-        <v>1388.37928296463</v>
+        <v>1395.524942477763</v>
       </c>
       <c r="M29" t="n">
-        <v>2074.046781795931</v>
+        <v>2084.599393525236</v>
       </c>
       <c r="N29" t="n">
-        <v>2775.422905980455</v>
+        <v>3074.016219660738</v>
       </c>
       <c r="O29" t="n">
-        <v>3424.377230115126</v>
+        <v>3726.239688016505</v>
       </c>
       <c r="P29" t="n">
-        <v>4253.266651214147</v>
+        <v>4248.396327675951</v>
       </c>
       <c r="Q29" t="n">
-        <v>4595.116517095338</v>
+        <v>4592.3414717167</v>
       </c>
       <c r="R29" t="n">
-        <v>4708.558775776542</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S29" t="n">
-        <v>4618.412503613271</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T29" t="n">
-        <v>4416.304513313804</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U29" t="n">
-        <v>4162.844757452358</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V29" t="n">
-        <v>3831.781870108787</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W29" t="n">
-        <v>3479.013214838673</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.547456577593</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.408124601781</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.8769867702725</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C30" t="n">
-        <v>773.4239574891456</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D30" t="n">
-        <v>624.4895478278943</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E30" t="n">
-        <v>465.2520928224387</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F30" t="n">
-        <v>318.7175348493237</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G30" t="n">
-        <v>182.8274221633692</v>
+        <v>182.3293128866052</v>
       </c>
       <c r="H30" t="n">
-        <v>96.89359110870683</v>
+        <v>96.49777987399527</v>
       </c>
       <c r="I30" t="n">
-        <v>94.17117551553085</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J30" t="n">
-        <v>231.6461192737498</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="K30" t="n">
-        <v>231.6461192737498</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="L30" t="n">
-        <v>698.999024705844</v>
+        <v>563.7470368959038</v>
       </c>
       <c r="M30" t="n">
-        <v>1263.734689904918</v>
+        <v>1131.113107956638</v>
       </c>
       <c r="N30" t="n">
-        <v>1857.825872654141</v>
+        <v>1727.904315583663</v>
       </c>
       <c r="O30" t="n">
-        <v>2132.856271661498</v>
+        <v>2251.63188273751</v>
       </c>
       <c r="P30" t="n">
-        <v>2531.878361733899</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="Q30" t="n">
-        <v>2531.878361733899</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="R30" t="n">
-        <v>2560.519197329501</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S30" t="n">
-        <v>2439.866845839846</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T30" t="n">
-        <v>2249.130316988893</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U30" t="n">
-        <v>2021.093587720771</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.941479489029</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.704122760827</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.852622555294</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1116.092323790341</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>945.9742119766356</v>
+        <v>408.9705711061353</v>
       </c>
       <c r="C31" t="n">
-        <v>777.0380290487287</v>
+        <v>392.1697837560715</v>
       </c>
       <c r="D31" t="n">
-        <v>626.921389636393</v>
+        <v>242.0531443437358</v>
       </c>
       <c r="E31" t="n">
-        <v>479.0082960539999</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="F31" t="n">
-        <v>332.1183485560895</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G31" t="n">
-        <v>164.8120487465579</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H31" t="n">
-        <v>94.17117551553085</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I31" t="n">
-        <v>94.17117551553085</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J31" t="n">
-        <v>166.7710612937718</v>
+        <v>167.3552671573046</v>
       </c>
       <c r="K31" t="n">
-        <v>415.9118121446776</v>
+        <v>417.5071952352225</v>
       </c>
       <c r="L31" t="n">
-        <v>790.2526316784467</v>
+        <v>793.1419734834328</v>
       </c>
       <c r="M31" t="n">
-        <v>1195.331662515452</v>
+        <v>1199.585302358417</v>
       </c>
       <c r="N31" t="n">
-        <v>1596.213435817159</v>
+        <v>1601.798933740116</v>
       </c>
       <c r="O31" t="n">
-        <v>1950.476342542013</v>
+        <v>1957.29202696932</v>
       </c>
       <c r="P31" t="n">
-        <v>2230.088777824546</v>
+        <v>2237.957099327609</v>
       </c>
       <c r="Q31" t="n">
-        <v>2340.242854410988</v>
+        <v>2348.839967262878</v>
       </c>
       <c r="R31" t="n">
-        <v>2340.242854410988</v>
+        <v>2277.238529591901</v>
       </c>
       <c r="S31" t="n">
-        <v>2340.242854410988</v>
+        <v>2092.617956886288</v>
       </c>
       <c r="T31" t="n">
-        <v>2120.170532647807</v>
+        <v>1872.583577444209</v>
       </c>
       <c r="U31" t="n">
-        <v>1831.08929505431</v>
+        <v>1583.502824220768</v>
       </c>
       <c r="V31" t="n">
-        <v>1576.404806848423</v>
+        <v>1328.818336014881</v>
       </c>
       <c r="W31" t="n">
-        <v>1576.404806848423</v>
+        <v>1039.401165977923</v>
       </c>
       <c r="X31" t="n">
-        <v>1348.415255950405</v>
+        <v>811.4116150799051</v>
       </c>
       <c r="Y31" t="n">
-        <v>1127.622676806875</v>
+        <v>590.619035936375</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2328.808284537659</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C32" t="n">
-        <v>1959.845767597248</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.580068990498</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.791816392254</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F32" t="n">
-        <v>804.8059116026466</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G32" t="n">
-        <v>390.6174722566222</v>
+        <v>389.6203923141829</v>
       </c>
       <c r="H32" t="n">
-        <v>102.0872475628569</v>
+        <v>101.2929105653989</v>
       </c>
       <c r="I32" t="n">
-        <v>94.17117551553085</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J32" t="n">
-        <v>356.5865355564972</v>
+        <v>358.2021945153779</v>
       </c>
       <c r="K32" t="n">
-        <v>800.6176543392838</v>
+        <v>1089.280036885503</v>
       </c>
       <c r="L32" t="n">
-        <v>1388.37928296463</v>
+        <v>1680.103564163851</v>
       </c>
       <c r="M32" t="n">
-        <v>2074.046781795931</v>
+        <v>2369.178015211324</v>
       </c>
       <c r="N32" t="n">
-        <v>2775.422905980455</v>
+        <v>3074.016219660738</v>
       </c>
       <c r="O32" t="n">
-        <v>3733.900150513082</v>
+        <v>3726.239688016505</v>
       </c>
       <c r="P32" t="n">
-        <v>4253.266651214147</v>
+        <v>4248.396327675951</v>
       </c>
       <c r="Q32" t="n">
-        <v>4595.116517095338</v>
+        <v>4592.3414717167</v>
       </c>
       <c r="R32" t="n">
-        <v>4708.558775776542</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S32" t="n">
-        <v>4618.412503613271</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T32" t="n">
-        <v>4416.304513313804</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U32" t="n">
-        <v>4162.844757452358</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V32" t="n">
-        <v>3831.781870108787</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W32" t="n">
-        <v>3479.013214838673</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.547456577593</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.408124601781</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.8769867702725</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C33" t="n">
-        <v>773.4239574891456</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D33" t="n">
-        <v>624.4895478278943</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E33" t="n">
-        <v>465.2520928224387</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F33" t="n">
-        <v>318.7175348493237</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G33" t="n">
-        <v>182.8274221633692</v>
+        <v>182.3293128866052</v>
       </c>
       <c r="H33" t="n">
-        <v>96.89359110870683</v>
+        <v>96.49777987399527</v>
       </c>
       <c r="I33" t="n">
-        <v>94.17117551553085</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J33" t="n">
-        <v>94.17117551553085</v>
+        <v>232.5958076174676</v>
       </c>
       <c r="K33" t="n">
-        <v>94.17117551553085</v>
+        <v>232.5958076174676</v>
       </c>
       <c r="L33" t="n">
-        <v>561.5240809476251</v>
+        <v>702.2027937520287</v>
       </c>
       <c r="M33" t="n">
-        <v>1126.259746146699</v>
+        <v>1038.247106473781</v>
       </c>
       <c r="N33" t="n">
-        <v>1423.423031722605</v>
+        <v>1635.038314100805</v>
       </c>
       <c r="O33" t="n">
-        <v>1944.680603605939</v>
+        <v>2158.765881254652</v>
       </c>
       <c r="P33" t="n">
-        <v>2343.702693678339</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="Q33" t="n">
-        <v>2560.519197329501</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="R33" t="n">
-        <v>2560.519197329501</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S33" t="n">
-        <v>2439.866845839846</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T33" t="n">
-        <v>2249.130316988893</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U33" t="n">
-        <v>2021.093587720771</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.941479489029</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.704122760827</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.852622555294</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1116.092323790341</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1018.024952747724</v>
+        <v>408.9705711061341</v>
       </c>
       <c r="C34" t="n">
-        <v>849.0887698198168</v>
+        <v>242.0531443437358</v>
       </c>
       <c r="D34" t="n">
-        <v>698.972130407481</v>
+        <v>242.0531443437358</v>
       </c>
       <c r="E34" t="n">
-        <v>551.0590368250879</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="F34" t="n">
-        <v>404.1690893271775</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G34" t="n">
-        <v>236.8627895176459</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H34" t="n">
-        <v>94.17117551553085</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I34" t="n">
-        <v>94.17117551553085</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J34" t="n">
-        <v>166.7710612937718</v>
+        <v>167.3552671573045</v>
       </c>
       <c r="K34" t="n">
-        <v>415.9118121446776</v>
+        <v>417.5071952352225</v>
       </c>
       <c r="L34" t="n">
-        <v>790.2526316784467</v>
+        <v>793.1419734834328</v>
       </c>
       <c r="M34" t="n">
-        <v>1195.331662515452</v>
+        <v>1199.585302358418</v>
       </c>
       <c r="N34" t="n">
-        <v>1596.213435817159</v>
+        <v>1601.798933740116</v>
       </c>
       <c r="O34" t="n">
-        <v>1950.476342542013</v>
+        <v>1957.29202696932</v>
       </c>
       <c r="P34" t="n">
-        <v>2230.088777824546</v>
+        <v>2237.957099327609</v>
       </c>
       <c r="Q34" t="n">
-        <v>2340.242854410988</v>
+        <v>2348.839967262878</v>
       </c>
       <c r="R34" t="n">
-        <v>2340.242854410988</v>
+        <v>2277.238529591901</v>
       </c>
       <c r="S34" t="n">
-        <v>2155.467525472284</v>
+        <v>2092.617956886289</v>
       </c>
       <c r="T34" t="n">
-        <v>1935.395203709103</v>
+        <v>1872.58357744421</v>
       </c>
       <c r="U34" t="n">
-        <v>1935.395203709103</v>
+        <v>1583.502824220769</v>
       </c>
       <c r="V34" t="n">
-        <v>1680.710715503217</v>
+        <v>1328.818336014882</v>
       </c>
       <c r="W34" t="n">
-        <v>1391.293545466256</v>
+        <v>1039.401165977921</v>
       </c>
       <c r="X34" t="n">
-        <v>1163.303994568238</v>
+        <v>811.4116150799039</v>
       </c>
       <c r="Y34" t="n">
-        <v>1018.024952747724</v>
+        <v>590.6190359363738</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6923,64 +6923,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
         <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>163.4947075553177</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>163.4947075553177</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L36" t="n">
-        <v>654.2270403990691</v>
+        <v>689.55324463298</v>
       </c>
       <c r="M36" t="n">
-        <v>1246.245394651197</v>
+        <v>1281.571598885108</v>
       </c>
       <c r="N36" t="n">
-        <v>1868.341358050533</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O36" t="n">
-        <v>1868.341358050533</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P36" t="n">
-        <v>2287.924876476609</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q36" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>847.854940431237</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>847.854940431237</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D37" t="n">
-        <v>697.7383010189012</v>
+        <v>241.7614417340002</v>
       </c>
       <c r="E37" t="n">
-        <v>549.8252074365081</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="F37" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G37" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411605</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117241</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948588</v>
+        <v>820.221016094858</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N37" t="n">
         <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P37" t="n">
         <v>2311.699365782259</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S37" t="n">
         <v>2178.382964033126</v>
@@ -7135,10 +7135,10 @@
         <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213701</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y37" t="n">
-        <v>897.5367589213701</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="38">
@@ -7163,55 +7163,55 @@
         <v>794.2588208963564</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J38" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015205</v>
       </c>
       <c r="K38" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.740996026518</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
         <v>3095.000365871304</v>
@@ -7245,34 +7245,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K39" t="n">
-        <v>573.0441050413344</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L39" t="n">
-        <v>573.0441050413344</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M39" t="n">
-        <v>1118.952438077079</v>
+        <v>833.5146841555808</v>
       </c>
       <c r="N39" t="n">
-        <v>1741.048401476415</v>
+        <v>1455.610647554917</v>
       </c>
       <c r="O39" t="n">
-        <v>2287.924876476609</v>
+        <v>2002.487122555111</v>
       </c>
       <c r="P39" t="n">
-        <v>2287.924876476609</v>
+        <v>2422.070640981187</v>
       </c>
       <c r="Q39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.9446108871161</v>
+        <v>495.0957149476003</v>
       </c>
       <c r="C40" t="n">
-        <v>699.9418468488439</v>
+        <v>326.1595320196934</v>
       </c>
       <c r="D40" t="n">
-        <v>549.8252074365081</v>
+        <v>176.0428926073577</v>
       </c>
       <c r="E40" t="n">
-        <v>549.8252074365081</v>
+        <v>176.0428926073577</v>
       </c>
       <c r="F40" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M40" t="n">
         <v>1239.450608139318</v>
@@ -7348,34 +7348,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q40" t="n">
         <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1737.487313103733</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.802824897846</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="X40" t="n">
-        <v>1193.385654860886</v>
+        <v>897.5367589213702</v>
       </c>
       <c r="Y40" t="n">
-        <v>972.5930757173559</v>
+        <v>676.74417977784</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>794.2588208963571</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>107.3505653988748</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>107.3505653988748</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961527</v>
+        <v>107.3505653988748</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961527</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.15426255076</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790047</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647284</v>
+        <v>495.0957149475996</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>391.8780811463359</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>241.7614417340002</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>820.2210160948587</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336516</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>897.5367589213695</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949681</v>
+        <v>676.7441797778393</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111727</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074384021</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.583449151119</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>572.005072466812</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565524</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683104</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1321.464883050338</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327647</v>
+        <v>495.0957149476003</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048579</v>
+        <v>326.1595320196934</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925222</v>
+        <v>176.0428926073577</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101292</v>
+        <v>176.0428926073577</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>176.0428926073577</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>172.8304710411608</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>432.4591980117245</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>820.2210160948588</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>897.5367589213702</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630045</v>
+        <v>676.74417977784</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8696,22 +8696,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>101.2846784468654</v>
+        <v>96.13798426930805</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,22 +8924,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>85.51392558917655</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>283.4826299948367</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9170,16 +9170,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>295.4822118493992</v>
       </c>
       <c r="N17" t="n">
-        <v>411.030428089901</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>198.7154374299962</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>148.4180109385388</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>272.8828616575882</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>276.6006559868306</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>221.7367333452876</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>312.6494145433903</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10121,13 +10121,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>287.4531532182704</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>312.6494145433903</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>287.4531532182705</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>312.6494145433901</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>51.31264782909176</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>51.31264782908795</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11069,13 +11069,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-6.600113726392897e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.31264782908852</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.537044377339726</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>73.85778156328772</v>
       </c>
       <c r="E13" t="n">
-        <v>78.0622263321704</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983812</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.537044377339671</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>73.85778156328878</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>66.01852596961245</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>139.6267647291679</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.12409135362454</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.61145443660418</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>16.47418244225643</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>183.3889571555943</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H28" t="n">
-        <v>141.2646978620939</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I28" t="n">
-        <v>84.54672633134476</v>
+        <v>84.28234746704003</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>37.83986135780531</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>4.180078975497764</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>150.6140416220647</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H31" t="n">
-        <v>71.33023336337709</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I31" t="n">
-        <v>84.54672633134476</v>
+        <v>84.28234746704003</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.28071285377527</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>182.9275756493162</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.998568603853442</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I34" t="n">
-        <v>84.54672633134476</v>
+        <v>84.28234746704003</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.28071285377527</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1904252175624</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>74.75840194978542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.6469798767056</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.0613636353763</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>81.80457674440902</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>77.15408470073827</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>64.04844901173811</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
         <v>81.80457674440902</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.49784254931318</v>
+        <v>65.06136363537678</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>110.0033420516642</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>84.16945386597382</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1036678.525914489</v>
+        <v>1036856.366307121</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1036678.525914489</v>
+        <v>1036856.366307121</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1034136.858332685</v>
+        <v>1034075.957175585</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1034136.858332685</v>
+        <v>1034075.957175585</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1034136.858332685</v>
+        <v>1034075.957175585</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1033381.522359845</v>
+        <v>1033505.188765509</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1033381.522359844</v>
+        <v>1033505.188765509</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
-        <v>377169.5818947266</v>
+        <v>377227.6975426337</v>
       </c>
       <c r="F2" t="n">
-        <v>377169.5818947267</v>
+        <v>377227.6975426341</v>
       </c>
       <c r="G2" t="n">
         <v>377227.697542634</v>
       </c>
       <c r="H2" t="n">
+        <v>377227.6975426337</v>
+      </c>
+      <c r="I2" t="n">
         <v>377227.6975426339</v>
       </c>
-      <c r="I2" t="n">
-        <v>377227.6975426341</v>
-      </c>
       <c r="J2" t="n">
-        <v>382053.5066750425</v>
+        <v>382161.5767240625</v>
       </c>
       <c r="K2" t="n">
-        <v>382053.5066750425</v>
+        <v>382161.5767240625</v>
       </c>
       <c r="L2" t="n">
-        <v>382053.5066750425</v>
+        <v>382161.5767240626</v>
       </c>
       <c r="M2" t="n">
-        <v>383174.4141313159</v>
+        <v>383174.4141313158</v>
       </c>
       <c r="N2" t="n">
-        <v>383174.4141313157</v>
+        <v>383174.4141313158</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.6348527528</v>
+        <v>383174.4141313158</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.634852753</v>
+        <v>383174.4141313158</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727259.1580574919</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>108.555145372892</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>332929.1637953214</v>
+        <v>336433.9864356425</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>164099.3869324109</v>
+        <v>160866.4619420256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>6729.160415098832</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25068.69066685691</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25068.69066685691</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
-        <v>9421.456719977374</v>
+        <v>9070.556508370601</v>
       </c>
       <c r="K4" t="n">
-        <v>9421.45671997737</v>
+        <v>9070.556508370606</v>
       </c>
       <c r="L4" t="n">
-        <v>9421.456719977366</v>
+        <v>9070.556508370613</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855101</v>
+        <v>5781.97189485514</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855074</v>
+        <v>5781.97189485508</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670403</v>
+        <v>5781.971894855111</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5781.971894855082</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96359.43757495095</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96359.43757495098</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>100073.0573829902</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="K5" t="n">
-        <v>100073.0573829902</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="L5" t="n">
-        <v>100073.0573829902</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="M5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="N5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="O5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="P5" t="n">
         <v>100930.0394572385</v>
-      </c>
-      <c r="N5" t="n">
-        <v>100930.0394572385</v>
-      </c>
-      <c r="O5" t="n">
-        <v>101122.5298239071</v>
-      </c>
-      <c r="P5" t="n">
-        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-483896.6225201511</v>
+        <v>-483896.6225201512</v>
       </c>
       <c r="C6" t="n">
-        <v>106071.2566943936</v>
+        <v>106071.2566943935</v>
       </c>
       <c r="D6" t="n">
-        <v>106071.2566943936</v>
+        <v>106071.2566943935</v>
       </c>
       <c r="E6" t="n">
-        <v>-471517.7044045732</v>
+        <v>-471691.1538697061</v>
       </c>
       <c r="F6" t="n">
-        <v>255741.4536529186</v>
+        <v>255686.2601237008</v>
       </c>
       <c r="G6" t="n">
-        <v>255644.9004685537</v>
+        <v>255686.2601237007</v>
       </c>
       <c r="H6" t="n">
-        <v>255753.4556139264</v>
+        <v>255686.2601237001</v>
       </c>
       <c r="I6" t="n">
-        <v>255753.4556139266</v>
+        <v>255686.2601237008</v>
       </c>
       <c r="J6" t="n">
-        <v>-60370.17122324643</v>
+        <v>-63539.87551953166</v>
       </c>
       <c r="K6" t="n">
-        <v>272558.9925720749</v>
+        <v>272894.1109161108</v>
       </c>
       <c r="L6" t="n">
-        <v>272558.9925720749</v>
+        <v>272894.1109161109</v>
       </c>
       <c r="M6" t="n">
-        <v>112363.0158468114</v>
+        <v>115560.0438553321</v>
       </c>
       <c r="N6" t="n">
-        <v>276462.4027792221</v>
+        <v>276426.5057973576</v>
       </c>
       <c r="O6" t="n">
-        <v>270475.3520120765</v>
+        <v>276426.5057973579</v>
       </c>
       <c r="P6" t="n">
-        <v>277204.5124271754</v>
+        <v>276426.5057973579</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,19 +26753,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1307.475412439759</v>
+        <v>1312.350597059647</v>
       </c>
       <c r="K3" t="n">
-        <v>1307.475412439759</v>
+        <v>1312.350597059647</v>
       </c>
       <c r="L3" t="n">
-        <v>1307.475412439759</v>
+        <v>1312.350597059647</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26774,10 +26774,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26796,10 +26796,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.116866809491</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.116866809491</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26811,13 +26811,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.139693944136</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="K4" t="n">
-        <v>1177.139693944136</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.139693944136</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="M4" t="n">
         <v>1173.104351895088</v>
@@ -26826,10 +26826,10 @@
         <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26969,34 +26969,34 @@
         <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>222.573896466349</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>45.69045165673833</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>217.6987118464613</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>50.56563627662649</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>9.934451625288375</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>519.8295940549355</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3960637954389767</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.9140360937608</v>
+        <v>656.5249766664083</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>515.7942520058876</v>
+        <v>516.5793752286799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.8295940549355</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3960637954389767</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>175.1818204265692</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>175.185574682727</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27585,10 +27585,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>161.8576559103016</v>
+        <v>21.8741453697219</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>41.73959823626376</v>
       </c>
       <c r="H5" t="n">
-        <v>177.0134361798707</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>67.95649084550561</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.2436641085299</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>100.5634396808768</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>146.7190594962159</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28059,22 +28059,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>56.93405031343801</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.310877332609077e-12</v>
       </c>
     </row>
     <row r="14">
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29937,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.256182562571893</v>
+        <v>5.275781294712146</v>
       </c>
       <c r="H26" t="n">
-        <v>53.82987966893941</v>
+        <v>54.03059518447078</v>
       </c>
       <c r="I26" t="n">
-        <v>202.6389782435531</v>
+        <v>203.3945583643902</v>
       </c>
       <c r="J26" t="n">
-        <v>446.1119247700866</v>
+        <v>447.7753426620754</v>
       </c>
       <c r="K26" t="n">
-        <v>668.6061326437549</v>
+        <v>671.0991648672407</v>
       </c>
       <c r="L26" t="n">
-        <v>829.4650297430647</v>
+        <v>832.5578566652877</v>
       </c>
       <c r="M26" t="n">
-        <v>922.9396663902025</v>
+        <v>926.3810322651248</v>
       </c>
       <c r="N26" t="n">
-        <v>937.87379509611</v>
+        <v>941.3708458687257</v>
       </c>
       <c r="O26" t="n">
-        <v>885.6076297395357</v>
+        <v>888.9097956194317</v>
       </c>
       <c r="P26" t="n">
-        <v>755.8456227260419</v>
+        <v>758.6639449062255</v>
       </c>
       <c r="Q26" t="n">
-        <v>567.6085847039359</v>
+        <v>569.7250272893466</v>
       </c>
       <c r="R26" t="n">
-        <v>330.173677896157</v>
+        <v>331.4047967539621</v>
       </c>
       <c r="S26" t="n">
-        <v>119.7752601446071</v>
+        <v>120.2218662532531</v>
       </c>
       <c r="T26" t="n">
-        <v>23.00893916765847</v>
+        <v>23.09473261760243</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4204946050057514</v>
+        <v>0.4220625035769716</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.812305604115709</v>
+        <v>2.822791850279241</v>
       </c>
       <c r="H27" t="n">
-        <v>27.16095149238066</v>
+        <v>27.26222655401268</v>
       </c>
       <c r="I27" t="n">
-        <v>96.82718856275578</v>
+        <v>97.18822817847389</v>
       </c>
       <c r="J27" t="n">
-        <v>265.7012062204232</v>
+        <v>266.6919265213384</v>
       </c>
       <c r="K27" t="n">
-        <v>454.1256816961757</v>
+        <v>455.8189804900475</v>
       </c>
       <c r="L27" t="n">
-        <v>610.6280216304744</v>
+        <v>612.9048708248854</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>731.4338158704273</v>
+        <v>505.6959383875749</v>
       </c>
       <c r="O27" t="n">
-        <v>669.1190443266003</v>
+        <v>671.6139890442895</v>
       </c>
       <c r="P27" t="n">
-        <v>537.0270236490778</v>
+        <v>539.0294367432352</v>
       </c>
       <c r="Q27" t="n">
-        <v>145.423281185515</v>
+        <v>360.3269035549432</v>
       </c>
       <c r="R27" t="n">
-        <v>174.6096409292192</v>
+        <v>175.260708037513</v>
       </c>
       <c r="S27" t="n">
-        <v>52.23734312907903</v>
+        <v>52.43212055233587</v>
       </c>
       <c r="T27" t="n">
-        <v>11.33556513237866</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1850201055339283</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.357742547022517</v>
+        <v>2.366533863550183</v>
       </c>
       <c r="H28" t="n">
-        <v>20.96247464534566</v>
+        <v>21.04063744138255</v>
       </c>
       <c r="I28" t="n">
-        <v>70.90374859591353</v>
+        <v>71.16812746021826</v>
       </c>
       <c r="J28" t="n">
-        <v>166.6923980744919</v>
+        <v>167.3139441529979</v>
       </c>
       <c r="K28" t="n">
-        <v>273.9268159177068</v>
+        <v>274.9482070561031</v>
       </c>
       <c r="L28" t="n">
-        <v>350.532014672784</v>
+        <v>351.8390436772701</v>
       </c>
       <c r="M28" t="n">
-        <v>369.5868612573568</v>
+        <v>370.9649400835983</v>
       </c>
       <c r="N28" t="n">
-        <v>360.7989117639095</v>
+        <v>362.1442229558206</v>
       </c>
       <c r="O28" t="n">
-        <v>333.2561920100555</v>
+        <v>334.4988046407115</v>
       </c>
       <c r="P28" t="n">
-        <v>285.1582440507959</v>
+        <v>286.2215138242875</v>
       </c>
       <c r="Q28" t="n">
-        <v>197.4287872784037</v>
+        <v>198.1649401560067</v>
       </c>
       <c r="R28" t="n">
-        <v>106.0126785233942</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S28" t="n">
-        <v>41.08902238765602</v>
+        <v>41.24223105841546</v>
       </c>
       <c r="T28" t="n">
-        <v>10.07399088273257</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1286041389285011</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.256182562571893</v>
+        <v>5.275781294712146</v>
       </c>
       <c r="H29" t="n">
-        <v>53.82987966893941</v>
+        <v>54.03059518447078</v>
       </c>
       <c r="I29" t="n">
-        <v>202.6389782435531</v>
+        <v>203.3945583643902</v>
       </c>
       <c r="J29" t="n">
-        <v>446.1119247700866</v>
+        <v>447.7753426620754</v>
       </c>
       <c r="K29" t="n">
-        <v>668.6061326437549</v>
+        <v>671.0991648672407</v>
       </c>
       <c r="L29" t="n">
-        <v>829.4650297430647</v>
+        <v>832.5578566652877</v>
       </c>
       <c r="M29" t="n">
-        <v>922.9396663902025</v>
+        <v>926.3810322651248</v>
       </c>
       <c r="N29" t="n">
-        <v>937.87379509611</v>
+        <v>941.3708458687257</v>
       </c>
       <c r="O29" t="n">
-        <v>885.6076297395357</v>
+        <v>888.9097956194317</v>
       </c>
       <c r="P29" t="n">
-        <v>755.8456227260419</v>
+        <v>758.6639449062255</v>
       </c>
       <c r="Q29" t="n">
-        <v>567.6085847039359</v>
+        <v>569.7250272893466</v>
       </c>
       <c r="R29" t="n">
-        <v>330.173677896157</v>
+        <v>331.4047967539621</v>
       </c>
       <c r="S29" t="n">
-        <v>119.7752601446071</v>
+        <v>120.2218662532531</v>
       </c>
       <c r="T29" t="n">
-        <v>23.00893916765847</v>
+        <v>23.09473261760243</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4204946050057514</v>
+        <v>0.4220625035769716</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.812305604115709</v>
+        <v>2.822791850279241</v>
       </c>
       <c r="H30" t="n">
-        <v>27.16095149238066</v>
+        <v>27.26222655401268</v>
       </c>
       <c r="I30" t="n">
-        <v>96.82718856275578</v>
+        <v>97.18822817847389</v>
       </c>
       <c r="J30" t="n">
-        <v>265.7012062204232</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>610.6280216304744</v>
+        <v>612.9048708248854</v>
       </c>
       <c r="M30" t="n">
-        <v>712.5740997796687</v>
+        <v>715.2310753975077</v>
       </c>
       <c r="N30" t="n">
-        <v>731.4338158704273</v>
+        <v>734.1611137267927</v>
       </c>
       <c r="O30" t="n">
-        <v>420.4047282902602</v>
+        <v>671.6139890442895</v>
       </c>
       <c r="P30" t="n">
-        <v>537.0270236490778</v>
+        <v>415.6441907678097</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>174.6096409292192</v>
+        <v>175.260708037513</v>
       </c>
       <c r="S30" t="n">
-        <v>52.23734312907903</v>
+        <v>52.43212055233587</v>
       </c>
       <c r="T30" t="n">
-        <v>11.33556513237866</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1850201055339283</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.357742547022517</v>
+        <v>2.366533863550183</v>
       </c>
       <c r="H31" t="n">
-        <v>20.96247464534566</v>
+        <v>21.04063744138255</v>
       </c>
       <c r="I31" t="n">
-        <v>70.90374859591353</v>
+        <v>71.16812746021826</v>
       </c>
       <c r="J31" t="n">
-        <v>166.6923980744919</v>
+        <v>167.3139441529979</v>
       </c>
       <c r="K31" t="n">
-        <v>273.9268159177068</v>
+        <v>274.9482070561031</v>
       </c>
       <c r="L31" t="n">
-        <v>350.532014672784</v>
+        <v>351.8390436772701</v>
       </c>
       <c r="M31" t="n">
-        <v>369.5868612573568</v>
+        <v>370.9649400835983</v>
       </c>
       <c r="N31" t="n">
-        <v>360.7989117639095</v>
+        <v>362.1442229558206</v>
       </c>
       <c r="O31" t="n">
-        <v>333.2561920100555</v>
+        <v>334.4988046407115</v>
       </c>
       <c r="P31" t="n">
-        <v>285.1582440507959</v>
+        <v>286.2215138242875</v>
       </c>
       <c r="Q31" t="n">
-        <v>197.4287872784037</v>
+        <v>198.1649401560067</v>
       </c>
       <c r="R31" t="n">
-        <v>106.0126785233942</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S31" t="n">
-        <v>41.08902238765602</v>
+        <v>41.24223105841546</v>
       </c>
       <c r="T31" t="n">
-        <v>10.07399088273257</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1286041389285011</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.256182562571893</v>
+        <v>5.275781294712146</v>
       </c>
       <c r="H32" t="n">
-        <v>53.82987966893941</v>
+        <v>54.03059518447078</v>
       </c>
       <c r="I32" t="n">
-        <v>202.6389782435531</v>
+        <v>203.3945583643902</v>
       </c>
       <c r="J32" t="n">
-        <v>446.1119247700866</v>
+        <v>447.7753426620754</v>
       </c>
       <c r="K32" t="n">
-        <v>668.6061326437549</v>
+        <v>671.0991648672407</v>
       </c>
       <c r="L32" t="n">
-        <v>829.4650297430647</v>
+        <v>832.5578566652877</v>
       </c>
       <c r="M32" t="n">
-        <v>922.9396663902025</v>
+        <v>926.3810322651248</v>
       </c>
       <c r="N32" t="n">
-        <v>937.87379509611</v>
+        <v>941.3708458687257</v>
       </c>
       <c r="O32" t="n">
-        <v>885.6076297395357</v>
+        <v>888.9097956194317</v>
       </c>
       <c r="P32" t="n">
-        <v>755.8456227260419</v>
+        <v>758.6639449062255</v>
       </c>
       <c r="Q32" t="n">
-        <v>567.6085847039359</v>
+        <v>569.7250272893466</v>
       </c>
       <c r="R32" t="n">
-        <v>330.173677896157</v>
+        <v>331.4047967539621</v>
       </c>
       <c r="S32" t="n">
-        <v>119.7752601446071</v>
+        <v>120.2218662532531</v>
       </c>
       <c r="T32" t="n">
-        <v>23.00893916765847</v>
+        <v>23.09473261760243</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4204946050057514</v>
+        <v>0.4220625035769716</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.812305604115709</v>
+        <v>2.822791850279241</v>
       </c>
       <c r="H33" t="n">
-        <v>27.16095149238066</v>
+        <v>27.26222655401268</v>
       </c>
       <c r="I33" t="n">
-        <v>96.82718856275578</v>
+        <v>97.18822817847389</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>266.6919265213384</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>610.6280216304744</v>
+        <v>612.9048708248854</v>
       </c>
       <c r="M33" t="n">
-        <v>712.5740997796687</v>
+        <v>481.5727336409597</v>
       </c>
       <c r="N33" t="n">
-        <v>431.5066470084906</v>
+        <v>734.1611137267927</v>
       </c>
       <c r="O33" t="n">
-        <v>669.1190443266003</v>
+        <v>671.6139890442895</v>
       </c>
       <c r="P33" t="n">
-        <v>537.0270236490778</v>
+        <v>539.0294367432352</v>
       </c>
       <c r="Q33" t="n">
-        <v>358.9883434306298</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>52.23734312907903</v>
+        <v>52.43212055233587</v>
       </c>
       <c r="T33" t="n">
-        <v>11.33556513237866</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1850201055339283</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.357742547022517</v>
+        <v>2.366533863550183</v>
       </c>
       <c r="H34" t="n">
-        <v>20.96247464534566</v>
+        <v>21.04063744138255</v>
       </c>
       <c r="I34" t="n">
-        <v>70.90374859591353</v>
+        <v>71.16812746021826</v>
       </c>
       <c r="J34" t="n">
-        <v>166.6923980744919</v>
+        <v>167.3139441529979</v>
       </c>
       <c r="K34" t="n">
-        <v>273.9268159177068</v>
+        <v>274.9482070561031</v>
       </c>
       <c r="L34" t="n">
-        <v>350.532014672784</v>
+        <v>351.8390436772701</v>
       </c>
       <c r="M34" t="n">
-        <v>369.5868612573568</v>
+        <v>370.9649400835983</v>
       </c>
       <c r="N34" t="n">
-        <v>360.7989117639095</v>
+        <v>362.1442229558206</v>
       </c>
       <c r="O34" t="n">
-        <v>333.2561920100555</v>
+        <v>334.4988046407115</v>
       </c>
       <c r="P34" t="n">
-        <v>285.1582440507959</v>
+        <v>286.2215138242875</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.4287872784037</v>
+        <v>198.1649401560067</v>
       </c>
       <c r="R34" t="n">
-        <v>106.0126785233942</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S34" t="n">
-        <v>41.08902238765602</v>
+        <v>41.24223105841546</v>
       </c>
       <c r="T34" t="n">
-        <v>10.07399088273257</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1286041389285011</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,43 +33728,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>196.1379567971597</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>591.1371219309115</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
         <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33968,19 +33968,19 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>693.5565925439821</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
         <v>759.7214730927639</v>
@@ -33989,13 +33989,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>273.0542121815558</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>139.426702093682</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>500.7380235181005</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377427</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122284</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830432</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364266</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293311</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.145364522961</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086955</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687526</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148608</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901941</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540906</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735819</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>471.6886536848226</v>
       </c>
       <c r="L45" t="n">
-        <v>194.5189324111248</v>
+        <v>634.2436048745726</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>392.6825986891665</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426206</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>557.7961431982455</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284928</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265023</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35416,22 +35416,22 @@
         <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>640.205794277092</v>
+        <v>635.0591000995346</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>422.7052121445769</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>835.7844654077481</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,16 +35890,16 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>834.4033276796257</v>
       </c>
       <c r="N17" t="n">
-        <v>963.3322635028122</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037194</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>751.0172728429075</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>399.2123157422584</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>610.0741482129887</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>784.6536568750496</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>265.0660202434003</v>
+        <v>266.7294381353891</v>
       </c>
       <c r="K26" t="n">
-        <v>448.5162815987744</v>
+        <v>672.7460471675478</v>
       </c>
       <c r="L26" t="n">
-        <v>593.6986147730775</v>
+        <v>596.7914416953004</v>
       </c>
       <c r="M26" t="n">
-        <v>692.5934331629298</v>
+        <v>696.0347990378521</v>
       </c>
       <c r="N26" t="n">
-        <v>708.4607314995192</v>
+        <v>711.9577822721349</v>
       </c>
       <c r="O26" t="n">
-        <v>655.5094183178489</v>
+        <v>658.811584197745</v>
       </c>
       <c r="P26" t="n">
-        <v>837.2620415141628</v>
+        <v>527.4309491509559</v>
       </c>
       <c r="Q26" t="n">
-        <v>345.3028948294864</v>
+        <v>347.4193374148971</v>
       </c>
       <c r="R26" t="n">
-        <v>114.5881400820248</v>
+        <v>181.5356788128124</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>138.8635795537565</v>
+        <v>139.8542998546717</v>
       </c>
       <c r="K27" t="n">
-        <v>316.2842427218167</v>
+        <v>317.9775415156885</v>
       </c>
       <c r="L27" t="n">
-        <v>472.0736418506003</v>
+        <v>474.3504910450112</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>600.0921037870941</v>
+        <v>374.3542263042416</v>
       </c>
       <c r="O27" t="n">
-        <v>526.5227998821558</v>
+        <v>529.0177445998451</v>
       </c>
       <c r="P27" t="n">
-        <v>403.0526162347476</v>
+        <v>405.055029328905</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.441507099493434</v>
+        <v>220.3451294689217</v>
       </c>
       <c r="R27" t="n">
-        <v>28.93013696525529</v>
+        <v>29.581204073549</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.33321795781913</v>
+        <v>73.95476403632517</v>
       </c>
       <c r="K28" t="n">
-        <v>251.657324091824</v>
+        <v>252.6787152302202</v>
       </c>
       <c r="L28" t="n">
-        <v>378.1220399331002</v>
+        <v>379.4290689375862</v>
       </c>
       <c r="M28" t="n">
-        <v>409.1707382191974</v>
+        <v>410.5488170454389</v>
       </c>
       <c r="N28" t="n">
-        <v>404.9310841431382</v>
+        <v>406.2763953350492</v>
       </c>
       <c r="O28" t="n">
-        <v>357.8413199240952</v>
+        <v>359.0839325547512</v>
       </c>
       <c r="P28" t="n">
-        <v>282.4368033156894</v>
+        <v>283.500073089181</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.2667440267095</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>265.0660202434003</v>
+        <v>266.7294381353891</v>
       </c>
       <c r="K29" t="n">
-        <v>448.5162815987744</v>
+        <v>451.0093138222601</v>
       </c>
       <c r="L29" t="n">
-        <v>593.6986147730775</v>
+        <v>596.7914416953004</v>
       </c>
       <c r="M29" t="n">
-        <v>692.5934331629298</v>
+        <v>696.0347990378521</v>
       </c>
       <c r="N29" t="n">
-        <v>708.4607314995192</v>
+        <v>999.4109354904052</v>
       </c>
       <c r="O29" t="n">
-        <v>655.5094183178489</v>
+        <v>658.811584197745</v>
       </c>
       <c r="P29" t="n">
-        <v>837.2620415141628</v>
+        <v>527.4309491509559</v>
       </c>
       <c r="Q29" t="n">
-        <v>345.3028948294864</v>
+        <v>347.4193374148971</v>
       </c>
       <c r="R29" t="n">
-        <v>114.5881400820248</v>
+        <v>115.81925893983</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>138.8635795537565</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>472.0736418506003</v>
+        <v>474.3504910450112</v>
       </c>
       <c r="M30" t="n">
-        <v>570.4400658576503</v>
+        <v>573.0970414754893</v>
       </c>
       <c r="N30" t="n">
-        <v>600.0921037870941</v>
+        <v>602.8194016434594</v>
       </c>
       <c r="O30" t="n">
-        <v>277.8084838458157</v>
+        <v>529.0177445998451</v>
       </c>
       <c r="P30" t="n">
-        <v>403.0526162347476</v>
+        <v>281.6697833534795</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>28.93013696525529</v>
+        <v>29.581204073549</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.33321795781913</v>
+        <v>73.95476403632517</v>
       </c>
       <c r="K31" t="n">
-        <v>251.657324091824</v>
+        <v>252.6787152302202</v>
       </c>
       <c r="L31" t="n">
-        <v>378.1220399331002</v>
+        <v>379.4290689375862</v>
       </c>
       <c r="M31" t="n">
-        <v>409.1707382191974</v>
+        <v>410.5488170454389</v>
       </c>
       <c r="N31" t="n">
-        <v>404.9310841431382</v>
+        <v>406.2763953350492</v>
       </c>
       <c r="O31" t="n">
-        <v>357.8413199240952</v>
+        <v>359.0839325547512</v>
       </c>
       <c r="P31" t="n">
-        <v>282.4368033156894</v>
+        <v>283.500073089181</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.2667440267093</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>265.0660202434003</v>
+        <v>266.7294381353891</v>
       </c>
       <c r="K32" t="n">
-        <v>448.5162815987744</v>
+        <v>738.4624670405307</v>
       </c>
       <c r="L32" t="n">
-        <v>593.6986147730775</v>
+        <v>596.7914416953004</v>
       </c>
       <c r="M32" t="n">
-        <v>692.5934331629298</v>
+        <v>696.0347990378521</v>
       </c>
       <c r="N32" t="n">
-        <v>708.4607314995192</v>
+        <v>711.9577822721349</v>
       </c>
       <c r="O32" t="n">
-        <v>968.158832861239</v>
+        <v>658.811584197745</v>
       </c>
       <c r="P32" t="n">
-        <v>524.6126269707725</v>
+        <v>527.4309491509559</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.3028948294864</v>
+        <v>347.4193374148971</v>
       </c>
       <c r="R32" t="n">
-        <v>114.5881400820248</v>
+        <v>115.81925893983</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>139.8542998546717</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>472.0736418506003</v>
+        <v>474.3504910450112</v>
       </c>
       <c r="M33" t="n">
-        <v>570.4400658576503</v>
+        <v>339.4386997189413</v>
       </c>
       <c r="N33" t="n">
-        <v>300.1649349251574</v>
+        <v>602.8194016434594</v>
       </c>
       <c r="O33" t="n">
-        <v>526.5227998821558</v>
+        <v>529.0177445998451</v>
       </c>
       <c r="P33" t="n">
-        <v>403.0526162347476</v>
+        <v>405.055029328905</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.0065693446083</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.33321795781913</v>
+        <v>73.95476403632517</v>
       </c>
       <c r="K34" t="n">
-        <v>251.657324091824</v>
+        <v>252.6787152302202</v>
       </c>
       <c r="L34" t="n">
-        <v>378.1220399331002</v>
+        <v>379.4290689375862</v>
       </c>
       <c r="M34" t="n">
-        <v>409.1707382191974</v>
+        <v>410.5488170454393</v>
       </c>
       <c r="N34" t="n">
-        <v>404.9310841431382</v>
+        <v>406.2763953350492</v>
       </c>
       <c r="O34" t="n">
-        <v>357.8413199240952</v>
+        <v>359.0839325547512</v>
       </c>
       <c r="P34" t="n">
-        <v>282.4368033156894</v>
+        <v>283.500073089181</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.2667440267093</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>796.0449487554599</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695028</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>69.30033013049305</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>452.5827421510373</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R36" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37476,7 +37476,7 @@
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
         <v>293.4650856931359</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898116</v>
       </c>
       <c r="K38" t="n">
         <v>474.3741250380626</v>
@@ -37561,7 +37561,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q38" t="n">
-        <v>418.5673812694992</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
         <v>127.3573607845842</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>551.4225586219637</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
         <v>628.3797610094306</v>
@@ -37637,13 +37637,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>133.0724380955343</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193496</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>605.1570404425736</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>12.5890754270153</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>366.7636161037703</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607203</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380627</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020584</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>796.0449487554586</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870087</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404113</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069152</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104636</v>
       </c>
       <c r="L45" t="n">
-        <v>55.96455263125056</v>
+        <v>495.6892250946984</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>261.3408866058332</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>552.4004797981762</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>423.8217357839153</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>35.68303457970745</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066055</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
